--- a/DATA and DOCS/Apps to IP.xlsx
+++ b/DATA and DOCS/Apps to IP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharath S\OneDrive\Desktop\SIMPLY_PROJECT\For Use\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharath S\OneDrive\Desktop\SIMPLY_PROJECT\For Use\summarAIze\DATA and DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ABDD69-A1BF-4223-967F-D5727BC3F76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24196669-6277-4B01-B270-D53424C39DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Application name</t>
   </si>
@@ -79,16 +79,31 @@
   </si>
   <si>
     <t>16.04.2</t>
+  </si>
+  <si>
+    <t>4.0.229.2</t>
+  </si>
+  <si>
+    <t>4.0.229.3</t>
+  </si>
+  <si>
+    <t>16.04.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -399,7 +414,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="B12:D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,11 +452,20 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
@@ -464,11 +488,23 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -488,6 +524,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -507,11 +549,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DATA and DOCS/Apps to IP.xlsx
+++ b/DATA and DOCS/Apps to IP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharath S\OneDrive\Desktop\SIMPLY_PROJECT\For Use\summarAIze\DATA and DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24196669-6277-4B01-B270-D53424C39DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9CE5CE-FAEB-4F0D-9A5B-76ADC3222C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,7 +423,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,16 +433,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
